--- a/table/question/question-shenghuochangshi.xlsx
+++ b/table/question/question-shenghuochangshi.xlsx
@@ -10,14 +10,14 @@
     <sheet name="question-shenghuochangshi" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'question-shenghuochangshi'!$I$1:$J$524</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'question-shenghuochangshi'!$A$1:$J$554</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3792" uniqueCount="2201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3813" uniqueCount="2211">
   <si>
     <t>ID</t>
   </si>
@@ -1603,7 +1603,7 @@
     <t>灵柩</t>
   </si>
   <si>
-    <t>用疑问的形式表达某种确定的意思，只问不答是：</t>
+    <t>用疑问的形式表达某种确定的意思，只问不答，是哪种句式？</t>
   </si>
   <si>
     <t>疑问</t>
@@ -5815,19 +5815,16 @@
     <t>我国纳税服务热线电话是：</t>
   </si>
   <si>
-    <t>一个物体长宽高都是2厘米，根据此数据它最可能是：</t>
-  </si>
-  <si>
-    <t>一块橡皮</t>
-  </si>
-  <si>
-    <t>一个微波炉</t>
-  </si>
-  <si>
-    <t>一辆汽车</t>
-  </si>
-  <si>
-    <t>一双成年人的鞋</t>
+    <t>身处海拔越高，感觉越：</t>
+  </si>
+  <si>
+    <t>冷</t>
+  </si>
+  <si>
+    <t>热</t>
+  </si>
+  <si>
+    <t>孤独</t>
   </si>
   <si>
     <t>盲人怎样阅读盲文？</t>
@@ -6620,6 +6617,39 @@
   </si>
   <si>
     <t>铁锅</t>
+  </si>
+  <si>
+    <t>下列选项中，不属于毒品的是：</t>
+  </si>
+  <si>
+    <t>摇头丸</t>
+  </si>
+  <si>
+    <t>可乐</t>
+  </si>
+  <si>
+    <t>海洛因</t>
+  </si>
+  <si>
+    <t>冰毒</t>
+  </si>
+  <si>
+    <t>下列选项中，不属于“四害”之一的是：</t>
+  </si>
+  <si>
+    <t>下列情绪中，属于消极情绪的是：</t>
+  </si>
+  <si>
+    <t>快乐</t>
+  </si>
+  <si>
+    <t>悲伤</t>
+  </si>
+  <si>
+    <t>自信</t>
+  </si>
+  <si>
+    <t>欣赏</t>
   </si>
 </sst>
 </file>
@@ -7766,10 +7796,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O554"/>
+  <dimension ref="A1:O557"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A513" workbookViewId="0">
-      <selection activeCell="B553" sqref="B553"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A531" workbookViewId="0">
+      <selection activeCell="A554" sqref="A554:A557"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" customHeight="1"/>
@@ -23433,10 +23463,10 @@
         <v>1934</v>
       </c>
       <c r="E488" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="F488" s="1" t="s">
         <v>1935</v>
-      </c>
-      <c r="F488" s="1" t="s">
-        <v>1936</v>
       </c>
       <c r="G488" s="1" t="s">
         <v>49</v>
@@ -23456,19 +23486,19 @@
         <v>486</v>
       </c>
       <c r="B489" s="1" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C489" s="1" t="s">
         <v>1937</v>
       </c>
-      <c r="C489" s="1" t="s">
+      <c r="D489" s="1" t="s">
         <v>1938</v>
       </c>
-      <c r="D489" s="1" t="s">
+      <c r="E489" s="1" t="s">
         <v>1939</v>
       </c>
-      <c r="E489" s="1" t="s">
+      <c r="F489" s="1" t="s">
         <v>1940</v>
-      </c>
-      <c r="F489" s="1" t="s">
-        <v>1941</v>
       </c>
       <c r="G489" s="1" t="s">
         <v>38</v>
@@ -23488,19 +23518,19 @@
         <v>487</v>
       </c>
       <c r="B490" s="1" t="s">
+        <v>1941</v>
+      </c>
+      <c r="C490" s="1" t="s">
         <v>1942</v>
       </c>
-      <c r="C490" s="1" t="s">
+      <c r="D490" s="1" t="s">
         <v>1943</v>
       </c>
-      <c r="D490" s="1" t="s">
+      <c r="E490" s="1" t="s">
         <v>1944</v>
       </c>
-      <c r="E490" s="1" t="s">
+      <c r="F490" s="1" t="s">
         <v>1945</v>
-      </c>
-      <c r="F490" s="1" t="s">
-        <v>1946</v>
       </c>
       <c r="G490" s="1" t="s">
         <v>26</v>
@@ -23520,19 +23550,19 @@
         <v>488</v>
       </c>
       <c r="B491" s="1" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C491" s="1" t="s">
         <v>1947</v>
       </c>
-      <c r="C491" s="1" t="s">
+      <c r="D491" s="1" t="s">
         <v>1948</v>
       </c>
-      <c r="D491" s="1" t="s">
+      <c r="E491" s="1" t="s">
         <v>1949</v>
       </c>
-      <c r="E491" s="1" t="s">
+      <c r="F491" s="1" t="s">
         <v>1950</v>
-      </c>
-      <c r="F491" s="1" t="s">
-        <v>1951</v>
       </c>
       <c r="G491" s="1" t="s">
         <v>26</v>
@@ -23552,19 +23582,19 @@
         <v>489</v>
       </c>
       <c r="B492" s="1" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C492" s="1" t="s">
         <v>1952</v>
       </c>
-      <c r="C492" s="1" t="s">
+      <c r="D492" s="1" t="s">
         <v>1953</v>
       </c>
-      <c r="D492" s="1" t="s">
+      <c r="E492" s="1" t="s">
         <v>1954</v>
       </c>
-      <c r="E492" s="1" t="s">
+      <c r="F492" s="1" t="s">
         <v>1955</v>
-      </c>
-      <c r="F492" s="1" t="s">
-        <v>1956</v>
       </c>
       <c r="G492" s="1" t="s">
         <v>49</v>
@@ -23584,19 +23614,19 @@
         <v>490</v>
       </c>
       <c r="B493" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C493" s="1" t="s">
         <v>1957</v>
       </c>
-      <c r="C493" s="1" t="s">
+      <c r="D493" s="1" t="s">
         <v>1958</v>
       </c>
-      <c r="D493" s="1" t="s">
+      <c r="E493" s="1" t="s">
         <v>1959</v>
       </c>
-      <c r="E493" s="1" t="s">
+      <c r="F493" s="1" t="s">
         <v>1960</v>
-      </c>
-      <c r="F493" s="1" t="s">
-        <v>1961</v>
       </c>
       <c r="G493" s="1" t="s">
         <v>33</v>
@@ -23616,16 +23646,16 @@
         <v>491</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="C494" s="1" t="s">
         <v>699</v>
       </c>
       <c r="D494" s="1" t="s">
+        <v>1962</v>
+      </c>
+      <c r="E494" s="1" t="s">
         <v>1963</v>
-      </c>
-      <c r="E494" s="1" t="s">
-        <v>1964</v>
       </c>
       <c r="F494" s="1" t="s">
         <v>1879</v>
@@ -23648,7 +23678,7 @@
         <v>492</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="C495" s="1" t="s">
         <v>1755</v>
@@ -23680,7 +23710,7 @@
         <v>493</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="C496" s="1" t="s">
         <v>205</v>
@@ -23712,13 +23742,13 @@
         <v>494</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="C497" s="1" t="s">
         <v>828</v>
       </c>
       <c r="D497" s="1" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="E497" s="1" t="s">
         <v>472</v>
@@ -23744,19 +23774,19 @@
         <v>495</v>
       </c>
       <c r="B498" s="1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="C498" s="1" t="s">
         <v>1969</v>
       </c>
-      <c r="C498" s="1" t="s">
+      <c r="D498" s="1" t="s">
         <v>1970</v>
       </c>
-      <c r="D498" s="1" t="s">
+      <c r="E498" s="1" t="s">
         <v>1971</v>
       </c>
-      <c r="E498" s="1" t="s">
+      <c r="F498" s="1" t="s">
         <v>1972</v>
-      </c>
-      <c r="F498" s="1" t="s">
-        <v>1973</v>
       </c>
       <c r="G498" s="1" t="s">
         <v>49</v>
@@ -23776,19 +23806,19 @@
         <v>496</v>
       </c>
       <c r="B499" s="1" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C499" s="1" t="s">
         <v>1974</v>
       </c>
-      <c r="C499" s="1" t="s">
+      <c r="D499" s="1" t="s">
         <v>1975</v>
       </c>
-      <c r="D499" s="1" t="s">
+      <c r="E499" s="1" t="s">
         <v>1976</v>
       </c>
-      <c r="E499" s="1" t="s">
+      <c r="F499" s="1" t="s">
         <v>1977</v>
-      </c>
-      <c r="F499" s="1" t="s">
-        <v>1978</v>
       </c>
       <c r="G499" s="1" t="s">
         <v>49</v>
@@ -23808,19 +23838,19 @@
         <v>497</v>
       </c>
       <c r="B500" s="1" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C500" s="1" t="s">
         <v>1979</v>
       </c>
-      <c r="C500" s="1" t="s">
+      <c r="D500" s="1" t="s">
         <v>1980</v>
       </c>
-      <c r="D500" s="1" t="s">
+      <c r="E500" s="1" t="s">
         <v>1981</v>
       </c>
-      <c r="E500" s="1" t="s">
+      <c r="F500" s="1" t="s">
         <v>1982</v>
-      </c>
-      <c r="F500" s="1" t="s">
-        <v>1983</v>
       </c>
       <c r="G500" s="1" t="s">
         <v>26</v>
@@ -23840,19 +23870,19 @@
         <v>498</v>
       </c>
       <c r="B501" s="1" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C501" s="1" t="s">
         <v>1984</v>
       </c>
-      <c r="C501" s="1" t="s">
+      <c r="D501" s="1" t="s">
         <v>1985</v>
       </c>
-      <c r="D501" s="1" t="s">
+      <c r="E501" s="1" t="s">
         <v>1986</v>
       </c>
-      <c r="E501" s="1" t="s">
+      <c r="F501" s="1" t="s">
         <v>1987</v>
-      </c>
-      <c r="F501" s="1" t="s">
-        <v>1988</v>
       </c>
       <c r="G501" s="1" t="s">
         <v>33</v>
@@ -23872,19 +23902,19 @@
         <v>499</v>
       </c>
       <c r="B502" s="1" t="s">
+        <v>1988</v>
+      </c>
+      <c r="C502" s="1" t="s">
         <v>1989</v>
-      </c>
-      <c r="C502" s="1" t="s">
-        <v>1990</v>
       </c>
       <c r="D502" s="1" t="s">
         <v>1592</v>
       </c>
       <c r="E502" s="1" t="s">
+        <v>1990</v>
+      </c>
+      <c r="F502" s="1" t="s">
         <v>1991</v>
-      </c>
-      <c r="F502" s="1" t="s">
-        <v>1992</v>
       </c>
       <c r="G502" s="1" t="s">
         <v>38</v>
@@ -23904,19 +23934,19 @@
         <v>500</v>
       </c>
       <c r="B503" s="1" t="s">
+        <v>1992</v>
+      </c>
+      <c r="C503" s="1" t="s">
         <v>1993</v>
       </c>
-      <c r="C503" s="1" t="s">
+      <c r="D503" s="1" t="s">
         <v>1994</v>
       </c>
-      <c r="D503" s="1" t="s">
+      <c r="E503" s="1" t="s">
         <v>1995</v>
       </c>
-      <c r="E503" s="1" t="s">
+      <c r="F503" s="1" t="s">
         <v>1996</v>
-      </c>
-      <c r="F503" s="1" t="s">
-        <v>1997</v>
       </c>
       <c r="G503" s="1" t="s">
         <v>33</v>
@@ -23936,19 +23966,19 @@
         <v>501</v>
       </c>
       <c r="B504" s="1" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C504" s="1" t="s">
         <v>1998</v>
       </c>
-      <c r="C504" s="1" t="s">
+      <c r="D504" s="1" t="s">
         <v>1999</v>
-      </c>
-      <c r="D504" s="1" t="s">
-        <v>2000</v>
       </c>
       <c r="E504" s="1" t="s">
         <v>983</v>
       </c>
       <c r="F504" s="1" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G504" s="1" t="s">
         <v>33</v>
@@ -23968,19 +23998,19 @@
         <v>502</v>
       </c>
       <c r="B505" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="C505" s="1" t="s">
         <v>2002</v>
       </c>
-      <c r="C505" s="1" t="s">
+      <c r="D505" s="1" t="s">
         <v>2003</v>
       </c>
-      <c r="D505" s="1" t="s">
+      <c r="E505" s="1" t="s">
         <v>2004</v>
       </c>
-      <c r="E505" s="1" t="s">
+      <c r="F505" s="1" t="s">
         <v>2005</v>
-      </c>
-      <c r="F505" s="1" t="s">
-        <v>2006</v>
       </c>
       <c r="G505" s="1" t="s">
         <v>49</v>
@@ -24000,19 +24030,19 @@
         <v>503</v>
       </c>
       <c r="B506" s="1" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C506" s="1" t="s">
+        <v>2002</v>
+      </c>
+      <c r="D506" s="1" t="s">
         <v>2007</v>
       </c>
-      <c r="C506" s="1" t="s">
+      <c r="E506" s="1" t="s">
         <v>2003</v>
       </c>
-      <c r="D506" s="1" t="s">
-        <v>2008</v>
-      </c>
-      <c r="E506" s="1" t="s">
-        <v>2004</v>
-      </c>
       <c r="F506" s="1" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G506" s="1" t="s">
         <v>33</v>
@@ -24032,19 +24062,19 @@
         <v>504</v>
       </c>
       <c r="B507" s="1" t="s">
+        <v>2008</v>
+      </c>
+      <c r="C507" s="1" t="s">
         <v>2009</v>
       </c>
-      <c r="C507" s="1" t="s">
+      <c r="D507" s="1" t="s">
+        <v>2003</v>
+      </c>
+      <c r="E507" s="1" t="s">
+        <v>2002</v>
+      </c>
+      <c r="F507" s="1" t="s">
         <v>2010</v>
-      </c>
-      <c r="D507" s="1" t="s">
-        <v>2004</v>
-      </c>
-      <c r="E507" s="1" t="s">
-        <v>2003</v>
-      </c>
-      <c r="F507" s="1" t="s">
-        <v>2011</v>
       </c>
       <c r="G507" s="1" t="s">
         <v>38</v>
@@ -24064,19 +24094,19 @@
         <v>505</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D508" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="E508" s="1" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="F508" s="1" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G508" s="1" t="s">
         <v>49</v>
@@ -24096,19 +24126,19 @@
         <v>506</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D509" s="1" t="s">
+        <v>2009</v>
+      </c>
+      <c r="E509" s="1" t="s">
+        <v>2003</v>
+      </c>
+      <c r="F509" s="1" t="s">
         <v>2010</v>
-      </c>
-      <c r="E509" s="1" t="s">
-        <v>2004</v>
-      </c>
-      <c r="F509" s="1" t="s">
-        <v>2011</v>
       </c>
       <c r="G509" s="1" t="s">
         <v>26</v>
@@ -24128,19 +24158,19 @@
         <v>507</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D510" s="1" t="s">
+        <v>2009</v>
+      </c>
+      <c r="E510" s="1" t="s">
+        <v>2005</v>
+      </c>
+      <c r="F510" s="1" t="s">
         <v>2010</v>
-      </c>
-      <c r="E510" s="1" t="s">
-        <v>2006</v>
-      </c>
-      <c r="F510" s="1" t="s">
-        <v>2011</v>
       </c>
       <c r="G510" s="1" t="s">
         <v>33</v>
@@ -24160,19 +24190,19 @@
         <v>508</v>
       </c>
       <c r="B511" s="1" t="s">
+        <v>2014</v>
+      </c>
+      <c r="C511" s="1" t="s">
         <v>2015</v>
       </c>
-      <c r="C511" s="1" t="s">
+      <c r="D511" s="1" t="s">
+        <v>2009</v>
+      </c>
+      <c r="E511" s="1" t="s">
+        <v>2005</v>
+      </c>
+      <c r="F511" s="1" t="s">
         <v>2016</v>
-      </c>
-      <c r="D511" s="1" t="s">
-        <v>2010</v>
-      </c>
-      <c r="E511" s="1" t="s">
-        <v>2006</v>
-      </c>
-      <c r="F511" s="1" t="s">
-        <v>2017</v>
       </c>
       <c r="G511" s="1" t="s">
         <v>38</v>
@@ -24192,19 +24222,19 @@
         <v>509</v>
       </c>
       <c r="B512" s="1" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C512" s="1" t="s">
         <v>2018</v>
       </c>
-      <c r="C512" s="1" t="s">
-        <v>2019</v>
-      </c>
       <c r="D512" s="1" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E512" s="1" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="F512" s="1" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G512" s="1" t="s">
         <v>49</v>
@@ -24224,19 +24254,19 @@
         <v>510</v>
       </c>
       <c r="B513" s="1" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C513" s="1" t="s">
+        <v>2018</v>
+      </c>
+      <c r="D513" s="1" t="s">
         <v>2020</v>
       </c>
-      <c r="C513" s="1" t="s">
-        <v>2019</v>
-      </c>
-      <c r="D513" s="1" t="s">
-        <v>2021</v>
-      </c>
       <c r="E513" s="1" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="F513" s="1" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G513" s="1" t="s">
         <v>26</v>
@@ -24256,19 +24286,19 @@
         <v>511</v>
       </c>
       <c r="B514" s="22" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C514" s="22" t="s">
         <v>1815</v>
       </c>
       <c r="D514" s="22" t="s">
+        <v>2022</v>
+      </c>
+      <c r="E514" s="22" t="s">
         <v>2023</v>
       </c>
-      <c r="E514" s="22" t="s">
+      <c r="F514" s="22" t="s">
         <v>2024</v>
-      </c>
-      <c r="F514" s="22" t="s">
-        <v>2025</v>
       </c>
       <c r="G514" s="22" t="s">
         <v>33</v>
@@ -24288,19 +24318,19 @@
         <v>512</v>
       </c>
       <c r="B515" s="22" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C515" s="22" t="s">
         <v>2026</v>
       </c>
-      <c r="C515" s="22" t="s">
+      <c r="D515" s="22" t="s">
         <v>2027</v>
       </c>
-      <c r="D515" s="22" t="s">
+      <c r="E515" s="22" t="s">
+        <v>2023</v>
+      </c>
+      <c r="F515" s="22" t="s">
         <v>2028</v>
-      </c>
-      <c r="E515" s="22" t="s">
-        <v>2024</v>
-      </c>
-      <c r="F515" s="22" t="s">
-        <v>2029</v>
       </c>
       <c r="G515" s="22" t="s">
         <v>49</v>
@@ -24320,19 +24350,19 @@
         <v>513</v>
       </c>
       <c r="B516" s="22" t="s">
+        <v>2029</v>
+      </c>
+      <c r="C516" s="22" t="s">
         <v>2030</v>
       </c>
-      <c r="C516" s="22" t="s">
+      <c r="D516" s="22" t="s">
         <v>2031</v>
       </c>
-      <c r="D516" s="22" t="s">
+      <c r="E516" s="22" t="s">
         <v>2032</v>
       </c>
-      <c r="E516" s="22" t="s">
+      <c r="F516" s="22" t="s">
         <v>2033</v>
-      </c>
-      <c r="F516" s="22" t="s">
-        <v>2034</v>
       </c>
       <c r="G516" s="22" t="s">
         <v>26</v>
@@ -24352,19 +24382,19 @@
         <v>514</v>
       </c>
       <c r="B517" s="22" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="C517" s="22" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D517" s="22" t="s">
         <v>2031</v>
       </c>
-      <c r="D517" s="22" t="s">
+      <c r="E517" s="22" t="s">
         <v>2032</v>
       </c>
-      <c r="E517" s="22" t="s">
+      <c r="F517" s="22" t="s">
         <v>2033</v>
-      </c>
-      <c r="F517" s="22" t="s">
-        <v>2034</v>
       </c>
       <c r="G517" s="22" t="s">
         <v>49</v>
@@ -24384,19 +24414,19 @@
         <v>515</v>
       </c>
       <c r="B518" s="22" t="s">
+        <v>2035</v>
+      </c>
+      <c r="C518" s="22" t="s">
         <v>2036</v>
       </c>
-      <c r="C518" s="22" t="s">
+      <c r="D518" s="22" t="s">
         <v>2037</v>
       </c>
-      <c r="D518" s="22" t="s">
+      <c r="E518" s="22" t="s">
         <v>2038</v>
       </c>
-      <c r="E518" s="22" t="s">
+      <c r="F518" s="22" t="s">
         <v>2039</v>
-      </c>
-      <c r="F518" s="22" t="s">
-        <v>2040</v>
       </c>
       <c r="G518" s="22" t="s">
         <v>49</v>
@@ -24416,16 +24446,16 @@
         <v>516</v>
       </c>
       <c r="B519" s="22" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C519" s="22" t="s">
         <v>2041</v>
       </c>
-      <c r="C519" s="22" t="s">
+      <c r="D519" s="22" t="s">
         <v>2042</v>
       </c>
-      <c r="D519" s="22" t="s">
+      <c r="E519" s="22" t="s">
         <v>2043</v>
-      </c>
-      <c r="E519" s="22" t="s">
-        <v>2044</v>
       </c>
       <c r="F519" s="22" t="s">
         <v>422</v>
@@ -24448,19 +24478,19 @@
         <v>517</v>
       </c>
       <c r="B520" s="26" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C520" s="22" t="s">
         <v>2045</v>
       </c>
-      <c r="C520" s="22" t="s">
+      <c r="D520" s="22" t="s">
         <v>2046</v>
       </c>
-      <c r="D520" s="22" t="s">
+      <c r="E520" s="22" t="s">
         <v>2047</v>
       </c>
-      <c r="E520" s="22" t="s">
+      <c r="F520" s="22" t="s">
         <v>2048</v>
-      </c>
-      <c r="F520" s="22" t="s">
-        <v>2049</v>
       </c>
       <c r="G520" s="22" t="s">
         <v>49</v>
@@ -24480,19 +24510,19 @@
         <v>518</v>
       </c>
       <c r="B521" s="22" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="C521" s="22" t="s">
+        <v>2045</v>
+      </c>
+      <c r="D521" s="22" t="s">
         <v>2046</v>
       </c>
-      <c r="D521" s="22" t="s">
+      <c r="E521" s="22" t="s">
         <v>2047</v>
       </c>
-      <c r="E521" s="22" t="s">
+      <c r="F521" s="22" t="s">
         <v>2048</v>
-      </c>
-      <c r="F521" s="22" t="s">
-        <v>2049</v>
       </c>
       <c r="G521" s="22" t="s">
         <v>33</v>
@@ -24512,19 +24542,19 @@
         <v>519</v>
       </c>
       <c r="B522" s="22" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="C522" s="22" t="s">
+        <v>2045</v>
+      </c>
+      <c r="D522" s="22" t="s">
         <v>2046</v>
       </c>
-      <c r="D522" s="22" t="s">
+      <c r="E522" s="22" t="s">
         <v>2047</v>
       </c>
-      <c r="E522" s="22" t="s">
+      <c r="F522" s="22" t="s">
         <v>2048</v>
-      </c>
-      <c r="F522" s="22" t="s">
-        <v>2049</v>
       </c>
       <c r="G522" s="22" t="s">
         <v>26</v>
@@ -24544,19 +24574,19 @@
         <v>520</v>
       </c>
       <c r="B523" s="22" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="C523" s="22" t="s">
+        <v>2045</v>
+      </c>
+      <c r="D523" s="22" t="s">
         <v>2046</v>
       </c>
-      <c r="D523" s="22" t="s">
+      <c r="E523" s="22" t="s">
         <v>2047</v>
       </c>
-      <c r="E523" s="22" t="s">
+      <c r="F523" s="22" t="s">
         <v>2048</v>
-      </c>
-      <c r="F523" s="22" t="s">
-        <v>2049</v>
       </c>
       <c r="G523" s="22" t="s">
         <v>38</v>
@@ -24576,19 +24606,19 @@
         <v>521</v>
       </c>
       <c r="B524" s="1" t="s">
+        <v>2052</v>
+      </c>
+      <c r="C524" s="1" t="s">
         <v>2053</v>
       </c>
-      <c r="C524" s="1" t="s">
+      <c r="D524" s="1" t="s">
         <v>2054</v>
       </c>
-      <c r="D524" s="1" t="s">
+      <c r="E524" s="1" t="s">
         <v>2055</v>
       </c>
-      <c r="E524" s="1" t="s">
+      <c r="F524" s="1" t="s">
         <v>2056</v>
-      </c>
-      <c r="F524" s="1" t="s">
-        <v>2057</v>
       </c>
       <c r="G524" s="1" t="s">
         <v>49</v>
@@ -24608,19 +24638,19 @@
         <v>522</v>
       </c>
       <c r="B525" s="1" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C525" s="1" t="s">
         <v>2058</v>
       </c>
-      <c r="C525" s="1" t="s">
+      <c r="D525" s="1" t="s">
         <v>2059</v>
       </c>
-      <c r="D525" s="1" t="s">
+      <c r="E525" s="1" t="s">
         <v>2060</v>
       </c>
-      <c r="E525" s="1" t="s">
+      <c r="F525" s="1" t="s">
         <v>2061</v>
-      </c>
-      <c r="F525" s="1" t="s">
-        <v>2062</v>
       </c>
       <c r="G525" s="1" t="s">
         <v>26</v>
@@ -24640,19 +24670,19 @@
         <v>523</v>
       </c>
       <c r="B526" s="1" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C526" s="1" t="s">
         <v>2063</v>
       </c>
-      <c r="C526" s="1" t="s">
+      <c r="D526" s="1" t="s">
         <v>2064</v>
       </c>
-      <c r="D526" s="1" t="s">
+      <c r="E526" s="1" t="s">
         <v>2065</v>
       </c>
-      <c r="E526" s="1" t="s">
+      <c r="F526" s="1" t="s">
         <v>2066</v>
-      </c>
-      <c r="F526" s="1" t="s">
-        <v>2067</v>
       </c>
       <c r="G526" s="1" t="s">
         <v>38</v>
@@ -24672,19 +24702,19 @@
         <v>524</v>
       </c>
       <c r="B527" s="1" t="s">
+        <v>2067</v>
+      </c>
+      <c r="C527" s="1" t="s">
         <v>2068</v>
       </c>
-      <c r="C527" s="1" t="s">
+      <c r="D527" s="1" t="s">
         <v>2069</v>
       </c>
-      <c r="D527" s="1" t="s">
+      <c r="E527" s="1" t="s">
         <v>2070</v>
       </c>
-      <c r="E527" s="1" t="s">
+      <c r="F527" s="1" t="s">
         <v>2071</v>
-      </c>
-      <c r="F527" s="1" t="s">
-        <v>2072</v>
       </c>
       <c r="G527" s="1" t="s">
         <v>49</v>
@@ -24704,19 +24734,19 @@
         <v>525</v>
       </c>
       <c r="B528" s="1" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C528" s="1" t="s">
         <v>2073</v>
       </c>
-      <c r="C528" s="1" t="s">
+      <c r="D528" s="1" t="s">
         <v>2074</v>
       </c>
-      <c r="D528" s="1" t="s">
+      <c r="E528" s="1" t="s">
         <v>2075</v>
       </c>
-      <c r="E528" s="1" t="s">
+      <c r="F528" s="1" t="s">
         <v>2076</v>
-      </c>
-      <c r="F528" s="1" t="s">
-        <v>2077</v>
       </c>
       <c r="G528" s="1" t="s">
         <v>26</v>
@@ -24736,19 +24766,19 @@
         <v>526</v>
       </c>
       <c r="B529" s="1" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C529" s="1" t="s">
         <v>2078</v>
       </c>
-      <c r="C529" s="1" t="s">
+      <c r="D529" s="1" t="s">
         <v>2079</v>
       </c>
-      <c r="D529" s="1" t="s">
+      <c r="E529" s="1" t="s">
         <v>2080</v>
       </c>
-      <c r="E529" s="1" t="s">
+      <c r="F529" s="1" t="s">
         <v>2081</v>
-      </c>
-      <c r="F529" s="1" t="s">
-        <v>2082</v>
       </c>
       <c r="G529" s="1" t="s">
         <v>33</v>
@@ -24768,19 +24798,19 @@
         <v>527</v>
       </c>
       <c r="B530" s="1" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C530" s="1" t="s">
         <v>2083</v>
       </c>
-      <c r="C530" s="1" t="s">
+      <c r="D530" s="1" t="s">
         <v>2084</v>
       </c>
-      <c r="D530" s="1" t="s">
+      <c r="E530" s="1" t="s">
         <v>2085</v>
       </c>
-      <c r="E530" s="1" t="s">
+      <c r="F530" s="1" t="s">
         <v>2086</v>
-      </c>
-      <c r="F530" s="1" t="s">
-        <v>2087</v>
       </c>
       <c r="G530" s="1" t="s">
         <v>33</v>
@@ -24800,19 +24830,19 @@
         <v>528</v>
       </c>
       <c r="B531" s="1" t="s">
+        <v>2087</v>
+      </c>
+      <c r="C531" s="1" t="s">
         <v>2088</v>
       </c>
-      <c r="C531" s="1" t="s">
+      <c r="D531" s="1" t="s">
         <v>2089</v>
       </c>
-      <c r="D531" s="1" t="s">
+      <c r="E531" s="1" t="s">
         <v>2090</v>
       </c>
-      <c r="E531" s="1" t="s">
+      <c r="F531" s="1" t="s">
         <v>2091</v>
-      </c>
-      <c r="F531" s="1" t="s">
-        <v>2092</v>
       </c>
       <c r="G531" s="1" t="s">
         <v>26</v>
@@ -24832,19 +24862,19 @@
         <v>529</v>
       </c>
       <c r="B532" s="1" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C532" s="1" t="s">
         <v>2093</v>
       </c>
-      <c r="C532" s="1" t="s">
+      <c r="D532" s="1" t="s">
         <v>2094</v>
       </c>
-      <c r="D532" s="1" t="s">
+      <c r="E532" s="1" t="s">
         <v>2095</v>
       </c>
-      <c r="E532" s="1" t="s">
+      <c r="F532" s="1" t="s">
         <v>2096</v>
-      </c>
-      <c r="F532" s="1" t="s">
-        <v>2097</v>
       </c>
       <c r="G532" s="1" t="s">
         <v>38</v>
@@ -24864,19 +24894,19 @@
         <v>530</v>
       </c>
       <c r="B533" s="1" t="s">
+        <v>2097</v>
+      </c>
+      <c r="C533" s="1" t="s">
         <v>2098</v>
       </c>
-      <c r="C533" s="1" t="s">
+      <c r="D533" s="1" t="s">
         <v>2099</v>
       </c>
-      <c r="D533" s="1" t="s">
+      <c r="E533" s="1" t="s">
         <v>2100</v>
       </c>
-      <c r="E533" s="1" t="s">
+      <c r="F533" s="1" t="s">
         <v>2101</v>
-      </c>
-      <c r="F533" s="1" t="s">
-        <v>2102</v>
       </c>
       <c r="G533" s="1" t="s">
         <v>26</v>
@@ -24896,19 +24926,19 @@
         <v>531</v>
       </c>
       <c r="B534" s="1" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C534" s="1" t="s">
         <v>2103</v>
       </c>
-      <c r="C534" s="1" t="s">
+      <c r="D534" s="1" t="s">
         <v>2104</v>
       </c>
-      <c r="D534" s="1" t="s">
+      <c r="E534" s="1" t="s">
         <v>2105</v>
       </c>
-      <c r="E534" s="1" t="s">
+      <c r="F534" s="1" t="s">
         <v>2106</v>
-      </c>
-      <c r="F534" s="1" t="s">
-        <v>2107</v>
       </c>
       <c r="G534" s="1" t="s">
         <v>26</v>
@@ -24928,19 +24958,19 @@
         <v>532</v>
       </c>
       <c r="B535" s="1" t="s">
+        <v>2107</v>
+      </c>
+      <c r="C535" s="1" t="s">
         <v>2108</v>
       </c>
-      <c r="C535" s="1" t="s">
+      <c r="D535" s="1" t="s">
         <v>2109</v>
       </c>
-      <c r="D535" s="1" t="s">
+      <c r="E535" s="1" t="s">
         <v>2110</v>
       </c>
-      <c r="E535" s="1" t="s">
+      <c r="F535" s="1" t="s">
         <v>2111</v>
-      </c>
-      <c r="F535" s="1" t="s">
-        <v>2112</v>
       </c>
       <c r="G535" s="1" t="s">
         <v>33</v>
@@ -24960,19 +24990,19 @@
         <v>533</v>
       </c>
       <c r="B536" s="1" t="s">
+        <v>2112</v>
+      </c>
+      <c r="C536" s="1" t="s">
         <v>2113</v>
       </c>
-      <c r="C536" s="1" t="s">
+      <c r="D536" s="1" t="s">
         <v>2114</v>
       </c>
-      <c r="D536" s="1" t="s">
+      <c r="E536" s="1" t="s">
         <v>2115</v>
       </c>
-      <c r="E536" s="1" t="s">
+      <c r="F536" s="1" t="s">
         <v>2116</v>
-      </c>
-      <c r="F536" s="1" t="s">
-        <v>2117</v>
       </c>
       <c r="G536" s="1" t="s">
         <v>38</v>
@@ -24992,19 +25022,19 @@
         <v>534</v>
       </c>
       <c r="B537" s="1" t="s">
+        <v>2117</v>
+      </c>
+      <c r="C537" s="1" t="s">
         <v>2118</v>
       </c>
-      <c r="C537" s="1" t="s">
+      <c r="D537" s="1" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E537" s="1" t="s">
         <v>2119</v>
       </c>
-      <c r="D537" s="1" t="s">
-        <v>2074</v>
-      </c>
-      <c r="E537" s="1" t="s">
+      <c r="F537" s="1" t="s">
         <v>2120</v>
-      </c>
-      <c r="F537" s="1" t="s">
-        <v>2121</v>
       </c>
       <c r="G537" s="1" t="s">
         <v>49</v>
@@ -25024,19 +25054,19 @@
         <v>535</v>
       </c>
       <c r="B538" s="1" t="s">
+        <v>2121</v>
+      </c>
+      <c r="C538" s="1" t="s">
         <v>2122</v>
       </c>
-      <c r="C538" s="1" t="s">
+      <c r="D538" s="1" t="s">
         <v>2123</v>
       </c>
-      <c r="D538" s="1" t="s">
+      <c r="E538" s="1" t="s">
         <v>2124</v>
       </c>
-      <c r="E538" s="1" t="s">
+      <c r="F538" s="1" t="s">
         <v>2125</v>
-      </c>
-      <c r="F538" s="1" t="s">
-        <v>2126</v>
       </c>
       <c r="G538" s="1" t="s">
         <v>26</v>
@@ -25056,19 +25086,19 @@
         <v>536</v>
       </c>
       <c r="B539" s="1" t="s">
+        <v>2126</v>
+      </c>
+      <c r="C539" s="1" t="s">
         <v>2127</v>
       </c>
-      <c r="C539" s="1" t="s">
+      <c r="D539" s="1" t="s">
         <v>2128</v>
       </c>
-      <c r="D539" s="1" t="s">
+      <c r="E539" s="1" t="s">
         <v>2129</v>
       </c>
-      <c r="E539" s="1" t="s">
+      <c r="F539" s="1" t="s">
         <v>2130</v>
-      </c>
-      <c r="F539" s="1" t="s">
-        <v>2131</v>
       </c>
       <c r="G539" s="1" t="s">
         <v>33</v>
@@ -25088,19 +25118,19 @@
         <v>537</v>
       </c>
       <c r="B540" s="1" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C540" s="1" t="s">
         <v>2132</v>
       </c>
-      <c r="C540" s="1" t="s">
+      <c r="D540" s="1" t="s">
         <v>2133</v>
       </c>
-      <c r="D540" s="1" t="s">
+      <c r="E540" s="1" t="s">
         <v>2134</v>
       </c>
-      <c r="E540" s="1" t="s">
+      <c r="F540" s="1" t="s">
         <v>2135</v>
-      </c>
-      <c r="F540" s="1" t="s">
-        <v>2136</v>
       </c>
       <c r="G540" s="1" t="s">
         <v>38</v>
@@ -25120,19 +25150,19 @@
         <v>538</v>
       </c>
       <c r="B541" s="1" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C541" s="1" t="s">
         <v>2137</v>
       </c>
-      <c r="C541" s="1" t="s">
+      <c r="D541" s="1" t="s">
         <v>2138</v>
       </c>
-      <c r="D541" s="1" t="s">
+      <c r="E541" s="1" t="s">
         <v>2139</v>
       </c>
-      <c r="E541" s="1" t="s">
-        <v>2140</v>
-      </c>
       <c r="F541" s="1" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="G541" s="1" t="s">
         <v>26</v>
@@ -25152,19 +25182,19 @@
         <v>539</v>
       </c>
       <c r="B542" s="1" t="s">
+        <v>2140</v>
+      </c>
+      <c r="C542" s="1" t="s">
         <v>2141</v>
       </c>
-      <c r="C542" s="1" t="s">
+      <c r="D542" s="1" t="s">
         <v>2142</v>
       </c>
-      <c r="D542" s="1" t="s">
+      <c r="E542" s="1" t="s">
         <v>2143</v>
       </c>
-      <c r="E542" s="1" t="s">
+      <c r="F542" s="1" t="s">
         <v>2144</v>
-      </c>
-      <c r="F542" s="1" t="s">
-        <v>2145</v>
       </c>
       <c r="G542" s="1" t="s">
         <v>33</v>
@@ -25184,19 +25214,19 @@
         <v>540</v>
       </c>
       <c r="B543" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="C543" s="1" t="s">
         <v>2146</v>
       </c>
-      <c r="C543" s="1" t="s">
+      <c r="D543" s="1" t="s">
         <v>2147</v>
       </c>
-      <c r="D543" s="1" t="s">
+      <c r="E543" s="1" t="s">
         <v>2148</v>
       </c>
-      <c r="E543" s="1" t="s">
+      <c r="F543" s="1" t="s">
         <v>2149</v>
-      </c>
-      <c r="F543" s="1" t="s">
-        <v>2150</v>
       </c>
       <c r="G543" s="1" t="s">
         <v>38</v>
@@ -25216,19 +25246,19 @@
         <v>541</v>
       </c>
       <c r="B544" s="1" t="s">
+        <v>2150</v>
+      </c>
+      <c r="C544" s="1" t="s">
         <v>2151</v>
       </c>
-      <c r="C544" s="1" t="s">
+      <c r="D544" s="1" t="s">
         <v>2152</v>
       </c>
-      <c r="D544" s="1" t="s">
+      <c r="E544" s="1" t="s">
         <v>2153</v>
       </c>
-      <c r="E544" s="1" t="s">
+      <c r="F544" s="1" t="s">
         <v>2154</v>
-      </c>
-      <c r="F544" s="1" t="s">
-        <v>2155</v>
       </c>
       <c r="G544" s="1" t="s">
         <v>49</v>
@@ -25248,19 +25278,19 @@
         <v>542</v>
       </c>
       <c r="B545" s="1" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C545" s="1" t="s">
         <v>2156</v>
       </c>
-      <c r="C545" s="1" t="s">
+      <c r="D545" s="1" t="s">
         <v>2157</v>
       </c>
-      <c r="D545" s="1" t="s">
+      <c r="E545" s="1" t="s">
         <v>2158</v>
       </c>
-      <c r="E545" s="1" t="s">
+      <c r="F545" s="1" t="s">
         <v>2159</v>
-      </c>
-      <c r="F545" s="1" t="s">
-        <v>2160</v>
       </c>
       <c r="G545" s="1" t="s">
         <v>38</v>
@@ -25280,19 +25310,19 @@
         <v>543</v>
       </c>
       <c r="B546" s="1" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C546" s="1" t="s">
         <v>2161</v>
       </c>
-      <c r="C546" s="1" t="s">
+      <c r="D546" s="1" t="s">
         <v>2162</v>
       </c>
-      <c r="D546" s="1" t="s">
+      <c r="E546" s="1" t="s">
         <v>2163</v>
       </c>
-      <c r="E546" s="1" t="s">
+      <c r="F546" s="1" t="s">
         <v>2164</v>
-      </c>
-      <c r="F546" s="1" t="s">
-        <v>2165</v>
       </c>
       <c r="G546" s="1" t="s">
         <v>49</v>
@@ -25312,19 +25342,19 @@
         <v>544</v>
       </c>
       <c r="B547" s="1" t="s">
+        <v>2165</v>
+      </c>
+      <c r="C547" s="1" t="s">
         <v>2166</v>
       </c>
-      <c r="C547" s="1" t="s">
+      <c r="D547" s="1" t="s">
         <v>2167</v>
       </c>
-      <c r="D547" s="1" t="s">
+      <c r="E547" s="1" t="s">
         <v>2168</v>
       </c>
-      <c r="E547" s="1" t="s">
+      <c r="F547" s="1" t="s">
         <v>2169</v>
-      </c>
-      <c r="F547" s="1" t="s">
-        <v>2170</v>
       </c>
       <c r="G547" s="1" t="s">
         <v>26</v>
@@ -25344,19 +25374,19 @@
         <v>545</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="C548" s="1" t="s">
         <v>947</v>
       </c>
       <c r="D548" s="1" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="E548" s="1" t="s">
         <v>950</v>
       </c>
       <c r="F548" s="1" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="G548" s="1" t="s">
         <v>33</v>
@@ -25376,19 +25406,19 @@
         <v>546</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="C549" s="1" t="s">
         <v>551</v>
       </c>
       <c r="D549" s="1" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="E549" s="1" t="s">
         <v>1296</v>
       </c>
       <c r="F549" s="1" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="G549" s="1" t="s">
         <v>26</v>
@@ -25408,16 +25438,16 @@
         <v>547</v>
       </c>
       <c r="B550" s="1" t="s">
+        <v>2176</v>
+      </c>
+      <c r="C550" s="1" t="s">
         <v>2177</v>
       </c>
-      <c r="C550" s="1" t="s">
+      <c r="D550" s="1" t="s">
         <v>2178</v>
       </c>
-      <c r="D550" s="1" t="s">
+      <c r="E550" s="1" t="s">
         <v>2179</v>
-      </c>
-      <c r="E550" s="1" t="s">
-        <v>2180</v>
       </c>
       <c r="F550" s="1" t="s">
         <v>1597</v>
@@ -25440,19 +25470,19 @@
         <v>548</v>
       </c>
       <c r="B551" s="1" t="s">
+        <v>2180</v>
+      </c>
+      <c r="C551" s="1" t="s">
         <v>2181</v>
       </c>
-      <c r="C551" s="1" t="s">
+      <c r="D551" s="1" t="s">
         <v>2182</v>
       </c>
-      <c r="D551" s="1" t="s">
+      <c r="E551" s="1" t="s">
         <v>2183</v>
       </c>
-      <c r="E551" s="1" t="s">
+      <c r="F551" s="1" t="s">
         <v>2184</v>
-      </c>
-      <c r="F551" s="1" t="s">
-        <v>2185</v>
       </c>
       <c r="G551" s="1" t="s">
         <v>38</v>
@@ -25472,19 +25502,19 @@
         <v>549</v>
       </c>
       <c r="B552" s="1" t="s">
+        <v>2185</v>
+      </c>
+      <c r="C552" s="1" t="s">
         <v>2186</v>
       </c>
-      <c r="C552" s="1" t="s">
+      <c r="D552" s="1" t="s">
         <v>2187</v>
       </c>
-      <c r="D552" s="1" t="s">
+      <c r="E552" s="1" t="s">
         <v>2188</v>
       </c>
-      <c r="E552" s="1" t="s">
+      <c r="F552" s="1" t="s">
         <v>2189</v>
-      </c>
-      <c r="F552" s="1" t="s">
-        <v>2190</v>
       </c>
       <c r="G552" s="1" t="s">
         <v>49</v>
@@ -25504,19 +25534,19 @@
         <v>550</v>
       </c>
       <c r="B553" s="1" t="s">
+        <v>2190</v>
+      </c>
+      <c r="C553" s="1" t="s">
         <v>2191</v>
       </c>
-      <c r="C553" s="1" t="s">
+      <c r="D553" s="1" t="s">
         <v>2192</v>
       </c>
-      <c r="D553" s="1" t="s">
+      <c r="E553" s="1" t="s">
         <v>2193</v>
       </c>
-      <c r="E553" s="1" t="s">
+      <c r="F553" s="1" t="s">
         <v>2194</v>
-      </c>
-      <c r="F553" s="1" t="s">
-        <v>2195</v>
       </c>
       <c r="G553" s="1" t="s">
         <v>26</v>
@@ -25536,19 +25566,19 @@
         <v>551</v>
       </c>
       <c r="B554" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C554" s="1" t="s">
         <v>2196</v>
       </c>
-      <c r="C554" s="1" t="s">
+      <c r="D554" s="1" t="s">
         <v>2197</v>
       </c>
-      <c r="D554" s="1" t="s">
+      <c r="E554" s="1" t="s">
         <v>2198</v>
       </c>
-      <c r="E554" s="1" t="s">
+      <c r="F554" s="1" t="s">
         <v>2199</v>
-      </c>
-      <c r="F554" s="1" t="s">
-        <v>2200</v>
       </c>
       <c r="G554" s="1" t="s">
         <v>38</v>
@@ -25563,7 +25593,106 @@
         <v>10</v>
       </c>
     </row>
+    <row r="555" customHeight="1" spans="1:10">
+      <c r="A555" s="1">
+        <v>552</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>2200</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>2201</v>
+      </c>
+      <c r="D555" s="1" t="s">
+        <v>2202</v>
+      </c>
+      <c r="E555" s="1" t="s">
+        <v>2203</v>
+      </c>
+      <c r="F555" s="1" t="s">
+        <v>2204</v>
+      </c>
+      <c r="G555" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H555" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I555" s="1">
+        <v>90</v>
+      </c>
+      <c r="J555" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="556" customHeight="1" spans="1:10">
+      <c r="A556" s="1">
+        <v>553</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>2205</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D556" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E556" s="1" t="s">
+        <v>2000</v>
+      </c>
+      <c r="F556" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G556" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H556" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I556" s="1">
+        <v>90</v>
+      </c>
+      <c r="J556" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="557" customHeight="1" spans="1:10">
+      <c r="A557" s="1">
+        <v>554</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>2206</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>2207</v>
+      </c>
+      <c r="D557" s="1" t="s">
+        <v>2208</v>
+      </c>
+      <c r="E557" s="1" t="s">
+        <v>2209</v>
+      </c>
+      <c r="F557" s="1" t="s">
+        <v>2210</v>
+      </c>
+      <c r="G557" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H557" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I557" s="1">
+        <v>90</v>
+      </c>
+      <c r="J557" s="1">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:J554">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
